--- a/Analytics/D1/Goalmins_d1.xlsx
+++ b/Analytics/D1/Goalmins_d1.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
+    <t>Mainz</t>
   </si>
   <si>
     <t>Heidenheim</t>
   </si>
   <si>
-    <t>Leverkusen</t>
+    <t>RB Leipzig</t>
   </si>
   <si>
     <t>Union Berlin</t>
   </si>
   <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Mainz</t>
+    <t>St Pauli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -136,7 +136,7 @@
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 34</t>
+    <t>SUM(TGM) / 9</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>3406.0</v>
+        <v>1116.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>3176.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>3085.0</v>
+        <v>1002.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>3076.0</v>
+        <v>954.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>3010.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>2973.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2835.0</v>
+        <v>814.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>2803.0</v>
+        <v>784.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2771.0</v>
+        <v>776.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2684.0</v>
+        <v>759.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2669.0</v>
+        <v>618.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2568.0</v>
+        <v>583.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>2563.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>2378.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>2367.0</v>
+        <v>418.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>2306.0</v>
+        <v>387.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>2203.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>2014.0</v>
+        <v>231.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>3712.0</v>
+        <v>1295.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>3432.0</v>
+        <v>1124.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>3426.0</v>
+        <v>928.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>3388.0</v>
+        <v>834.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>3187.0</v>
+        <v>807.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>2983.0</v>
+        <v>801.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>2849.0</v>
+        <v>786.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>2818.0</v>
+        <v>756.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>2527.0</v>
+        <v>733.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>2459.0</v>
+        <v>607.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2394.0</v>
+        <v>568.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2384.0</v>
+        <v>548.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>2361.0</v>
+        <v>546.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>2321.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>2306.0</v>
+        <v>544.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>2305.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>2246.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>1789.0</v>
+        <v>379.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>7118.0</v>
+        <v>1883.0</v>
       </c>
       <c r="D2" t="n">
-        <v>209.35294117647058</v>
+        <v>209.22222222222223</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>6508.0</v>
+        <v>1876.0</v>
       </c>
       <c r="D3" t="n">
-        <v>191.41176470588235</v>
+        <v>208.44444444444446</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>6272.0</v>
+        <v>1744.0</v>
       </c>
       <c r="D4" t="n">
-        <v>184.47058823529412</v>
+        <v>193.77777777777777</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>5994.0</v>
+        <v>1726.0</v>
       </c>
       <c r="D5" t="n">
-        <v>176.2941176470588</v>
+        <v>191.77777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>5989.0</v>
+        <v>1662.0</v>
       </c>
       <c r="D6" t="n">
-        <v>176.14705882352942</v>
+        <v>184.66666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>5822.0</v>
+        <v>1604.0</v>
       </c>
       <c r="D7" t="n">
-        <v>171.23529411764707</v>
+        <v>178.22222222222223</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>5766.0</v>
+        <v>1562.0</v>
       </c>
       <c r="D8" t="n">
-        <v>169.58823529411765</v>
+        <v>173.55555555555554</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>5652.0</v>
+        <v>1546.0</v>
       </c>
       <c r="D9" t="n">
-        <v>166.23529411764707</v>
+        <v>171.77777777777777</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>5316.0</v>
+        <v>1517.0</v>
       </c>
       <c r="D10" t="n">
-        <v>156.35294117647058</v>
+        <v>168.55555555555554</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>5298.0</v>
+        <v>1511.0</v>
       </c>
       <c r="D11" t="n">
-        <v>155.8235294117647</v>
+        <v>167.88888888888889</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>5164.0</v>
+        <v>1421.0</v>
       </c>
       <c r="D12" t="n">
-        <v>151.88235294117646</v>
+        <v>157.88888888888889</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>4989.0</v>
+        <v>1333.0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.73529411764707</v>
+        <v>148.11111111111111</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>4952.0</v>
+        <v>1219.0</v>
       </c>
       <c r="D14" t="n">
-        <v>145.64705882352942</v>
+        <v>135.44444444444446</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>4765.0</v>
+        <v>1186.0</v>
       </c>
       <c r="D15" t="n">
-        <v>140.14705882352942</v>
+        <v>131.77777777777777</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>4688.0</v>
+        <v>1049.0</v>
       </c>
       <c r="D16" t="n">
-        <v>137.88235294117646</v>
+        <v>116.55555555555556</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>4624.0</v>
+        <v>987.0</v>
       </c>
       <c r="D17" t="n">
-        <v>136.0</v>
+        <v>109.66666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>4597.0</v>
+        <v>891.0</v>
       </c>
       <c r="D18" t="n">
-        <v>135.2058823529412</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>4260.0</v>
+        <v>757.0</v>
       </c>
       <c r="D19" t="n">
-        <v>125.29411764705883</v>
+        <v>84.11111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/Goalmins_d1.xlsx
+++ b/Analytics/D1/Goalmins_d1.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
     <t>Wolfsburg</t>
   </si>
   <si>
     <t>Dortmund</t>
   </si>
   <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
     <t>Mgladbach</t>
   </si>
   <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
+    <t>Bayern Munich</t>
   </si>
   <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
     <t>Augsburg</t>
   </si>
   <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
     <t>Mainz</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
     <t>RB Leipzig</t>
   </si>
   <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
     <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.0</v>
+        <v>1670.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>1060.0</v>
+        <v>1553.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1002.0</v>
+        <v>1498.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>954.0</v>
+        <v>1432.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>937.0</v>
+        <v>1374.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>892.0</v>
+        <v>1207.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>814.0</v>
+        <v>1197.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>784.0</v>
+        <v>1185.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>776.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>759.0</v>
+        <v>1027.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>618.0</v>
+        <v>981.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>583.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>581.0</v>
+        <v>922.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0</v>
+        <v>906.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>418.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>387.0</v>
+        <v>758.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>324.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>231.0</v>
+        <v>482.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.0</v>
+        <v>1617.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>1124.0</v>
+        <v>1501.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>928.0</v>
+        <v>1482.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>834.0</v>
+        <v>1349.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>807.0</v>
+        <v>1341.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>801.0</v>
+        <v>1318.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>786.0</v>
+        <v>1186.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>756.0</v>
+        <v>1110.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>733.0</v>
+        <v>1107.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>607.0</v>
+        <v>1049.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>568.0</v>
+        <v>1015.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>548.0</v>
+        <v>937.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>546.0</v>
+        <v>924.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>544.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +578,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>544.0</v>
+        <v>855.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>504.0</v>
+        <v>768.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>433.0</v>
+        <v>758.0</v>
       </c>
     </row>
     <row r="19">
@@ -611,7 +611,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>379.0</v>
+        <v>543.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>1883.0</v>
+        <v>2871.0</v>
       </c>
       <c r="D2" t="n">
-        <v>209.22222222222223</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>1876.0</v>
+        <v>2856.0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.44444444444446</v>
+        <v>317.3333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>1744.0</v>
+        <v>2824.0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.77777777777777</v>
+        <v>313.77777777777777</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>1726.0</v>
+        <v>2698.0</v>
       </c>
       <c r="D5" t="n">
-        <v>191.77777777777777</v>
+        <v>299.77777777777777</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>1662.0</v>
+        <v>2509.0</v>
       </c>
       <c r="D6" t="n">
-        <v>184.66666666666666</v>
+        <v>278.77777777777777</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1604.0</v>
+        <v>2353.0</v>
       </c>
       <c r="D7" t="n">
-        <v>178.22222222222223</v>
+        <v>261.44444444444446</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>1562.0</v>
+        <v>2322.0</v>
       </c>
       <c r="D8" t="n">
-        <v>173.55555555555554</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>1546.0</v>
+        <v>2271.0</v>
       </c>
       <c r="D9" t="n">
-        <v>171.77777777777777</v>
+        <v>252.33333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -759,10 +759,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1517.0</v>
+        <v>2234.0</v>
       </c>
       <c r="D10" t="n">
-        <v>168.55555555555554</v>
+        <v>248.22222222222223</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>1511.0</v>
+        <v>2132.0</v>
       </c>
       <c r="D11" t="n">
-        <v>167.88888888888889</v>
+        <v>236.88888888888889</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>1421.0</v>
+        <v>2051.0</v>
       </c>
       <c r="D12" t="n">
-        <v>157.88888888888889</v>
+        <v>227.88888888888889</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>1333.0</v>
+        <v>2043.0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.11111111111111</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>1219.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D14" t="n">
-        <v>135.44444444444446</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>1186.0</v>
+        <v>1975.0</v>
       </c>
       <c r="D15" t="n">
-        <v>131.77777777777777</v>
+        <v>219.44444444444446</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>1049.0</v>
+        <v>1907.0</v>
       </c>
       <c r="D16" t="n">
-        <v>116.55555555555556</v>
+        <v>211.88888888888889</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>987.0</v>
+        <v>1695.0</v>
       </c>
       <c r="D17" t="n">
-        <v>109.66666666666667</v>
+        <v>188.33333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>891.0</v>
+        <v>1511.0</v>
       </c>
       <c r="D18" t="n">
-        <v>99.0</v>
+        <v>167.88888888888889</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>757.0</v>
+        <v>1250.0</v>
       </c>
       <c r="D19" t="n">
-        <v>84.11111111111111</v>
+        <v>138.88888888888889</v>
       </c>
     </row>
   </sheetData>
